--- a/fun_name.xlsx
+++ b/fun_name.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D772C4-6667-42E3-A8C4-A750D2C2F4CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7483596-ECBF-9B4E-A153-829D48824FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1700" windowWidth="31640" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>public static void main(String[] args) throws IOException{</t>
   </si>
@@ -154,17 +154,20 @@
   <si>
     <t>函數名稱</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>函數作用</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -177,7 +180,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -208,7 +211,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,242 +489,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="205.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="205.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>41</v>
       </c>

--- a/fun_name.xlsx
+++ b/fun_name.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D772C4-6667-42E3-A8C4-A750D2C2F4CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7B9123-022B-4E71-955B-49C334773170}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>public static void main(String[] args) throws IOException{</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>static boolean check_K_NonEmptyGroup(chromosome chro, int K) {</t>
-  </si>
-  <si>
-    <t>private static void outPutInitialChromosome(Hashtable&lt;String, chromosome&gt; population, File f, int K) {</t>
   </si>
   <si>
     <t>private static void printPopulation(Hashtable&lt;String, chromosome&gt; population) {</t>
@@ -153,6 +150,10 @@
   </si>
   <si>
     <t>函數名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>private static void outPutInitialChromosome(Hashtable&lt;String, chromosome&gt; population, File f, int K) {</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,16 +183,60 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -199,16 +244,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="計算方式" xfId="1" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -500,14 +570,14 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -517,7 +587,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -548,182 +618,172 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>9</v>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>12</v>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>13</v>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>14</v>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>15</v>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>16</v>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>17</v>
+      <c r="B21" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="B43" s="7" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/fun_name.xlsx
+++ b/fun_name.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7B9123-022B-4E71-955B-49C334773170}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EC9A12-688B-4A0B-8EA8-26633FA2951E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>public static void main(String[] args) throws IOException{</t>
   </si>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>private static void outPutInitialChromosome(Hashtable&lt;String, chromosome&gt; population, File f, int K) {</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看完</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -556,19 +560,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="205.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -576,212 +580,215 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" s="7" t="s">
         <v>40</v>
       </c>
@@ -789,6 +796,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>